--- a/src/analysis_examples/circadipy/ground_truth_comparison_results.xlsx
+++ b/src/analysis_examples/circadipy/ground_truth_comparison_results.xlsx
@@ -483,26 +483,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1445000000003303</v>
+        <v>0.06650000000031789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08550000000030344</v>
+        <v>2.900790718740609e-13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02600000000036786</v>
+        <v>0.02250000000036732</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6098153409025824</v>
+        <v>0.2034520828107434</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4721702553105476</v>
+        <v>1.797942538808814e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2752162785883964</v>
+        <v>0.08717080933434017</v>
       </c>
       <c r="H2" t="n">
         <v>20</v>
@@ -517,26 +517,26 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.007499999999692974</v>
+        <v>0.2765000000003518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1070000000003057</v>
+        <v>0.04899999999971758</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06850000000037379</v>
+        <v>0.1105000000003805</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3622688918470156</v>
+        <v>0.6360917779691767</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4270725933608912</v>
+        <v>0.2943450356299742</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2320619529350591</v>
+        <v>0.2713203825738432</v>
       </c>
       <c r="H3" t="n">
         <v>20</v>
@@ -551,26 +551,26 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008499999999692597</v>
+        <v>0.04350000000031536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03900000000029493</v>
+        <v>0.1160000000003066</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09500000000037759</v>
+        <v>0.1124999999996536</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4757549264064893</v>
+        <v>0.3921386872014265</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2338781734151553</v>
+        <v>0.2282191928826604</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4538446870902511</v>
+        <v>0.3466247971511013</v>
       </c>
       <c r="H4" t="n">
         <v>20</v>
@@ -585,26 +585,26 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.106500000000325</v>
+        <v>0.03349999999969775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05150000000029795</v>
+        <v>0.08300000000030323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01649999999963789</v>
+        <v>0.03350000000036903</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3553206298542616</v>
+        <v>0.5612510579055742</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2221772940693888</v>
+        <v>0.4218897960368873</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1426280126764012</v>
+        <v>0.3819329129573403</v>
       </c>
       <c r="H5" t="n">
         <v>20</v>
@@ -619,26 +619,26 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1050000000003244</v>
+        <v>0.1305000000003281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01200000000029213</v>
+        <v>0.1184999999997293</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05500000000037168</v>
+        <v>0.01449999999963776</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2563103587450652</v>
+        <v>0.2242872042716541</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08947625383302039</v>
+        <v>0.2305054229297614</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1420739244196639</v>
+        <v>0.2802940420344944</v>
       </c>
       <c r="H6" t="n">
         <v>20</v>
@@ -653,26 +653,26 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06650000000031789</v>
+        <v>0.1040000000003239</v>
       </c>
       <c r="C7" t="n">
-        <v>2.900790718740609e-13</v>
+        <v>0.02699999999971432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02250000000036732</v>
+        <v>0.02150000000036822</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2034520828107434</v>
+        <v>0.2290065501247217</v>
       </c>
       <c r="F7" t="n">
-        <v>1.797942538808814e-13</v>
+        <v>0.05745432968892199</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08717080933434017</v>
+        <v>0.1453022711454006</v>
       </c>
       <c r="H7" t="n">
         <v>20</v>

--- a/src/analysis_examples/circadipy/ground_truth_comparison_results.xlsx
+++ b/src/analysis_examples/circadipy/ground_truth_comparison_results.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2765000000003518</v>
+        <v>0.01300000000030952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04899999999971758</v>
+        <v>0.09300000000030337</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1105000000003805</v>
+        <v>0.07300000000037574</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6360917779691767</v>
+        <v>0.5496553465582421</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2943450356299742</v>
+        <v>0.4195724013803569</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2713203825738432</v>
+        <v>0.4419739811347009</v>
       </c>
       <c r="H3" t="n">
         <v>20</v>
@@ -555,22 +555,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04350000000031536</v>
+        <v>0.07650000000032105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1160000000003066</v>
+        <v>0.04899999999971829</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1124999999996536</v>
+        <v>0.1075000000003801</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3921386872014265</v>
+        <v>0.4534564477433732</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2282191928826604</v>
+        <v>0.2259181267628052</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3466247971511013</v>
+        <v>0.3182275129526564</v>
       </c>
       <c r="H4" t="n">
         <v>20</v>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03349999999969775</v>
+        <v>0.06100000000031809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08300000000030323</v>
+        <v>0.1829999999997398</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03350000000036903</v>
+        <v>0.03049999999964168</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5612510579055742</v>
+        <v>0.32177476594668</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4218897960368873</v>
+        <v>0.315517035990159</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3819329129573403</v>
+        <v>0.2688024367449826</v>
       </c>
       <c r="H5" t="n">
         <v>20</v>
@@ -623,22 +623,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1305000000003281</v>
+        <v>0.04250000000031449</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1184999999997293</v>
+        <v>0.03900000000029653</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01449999999963776</v>
+        <v>0.06300000000037347</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2242872042716541</v>
+        <v>0.2942256786891186</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2305054229297614</v>
+        <v>0.2162151706055612</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2802940420344944</v>
+        <v>0.2458881859708516</v>
       </c>
       <c r="H6" t="n">
         <v>20</v>
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1040000000003239</v>
+        <v>0.03350000000031308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02699999999971432</v>
+        <v>0.02550000000029478</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02150000000036822</v>
+        <v>0.0240000000003679</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2290065501247217</v>
+        <v>0.2654858753305432</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05745432968892199</v>
+        <v>0.1698079797889337</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1453022711454006</v>
+        <v>0.1205570404414701</v>
       </c>
       <c r="H7" t="n">
         <v>20</v>
